--- a/MNIST/ablation/whether_attached/BBP_with_special_train/count.xlsx
+++ b/MNIST/ablation/whether_attached/BBP_with_special_train/count.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5D4F9C-E9C8-411F-9E24-AFFF6ED47DFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9391F1-4867-44A0-97BC-1A1591FDD8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,34 +342,34 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>99.57</v>
+        <v>99.31</v>
       </c>
       <c r="B1">
-        <v>99.59</v>
+        <v>99.32</v>
       </c>
       <c r="C1">
-        <v>99.51</v>
+        <v>99.31</v>
       </c>
       <c r="D1">
-        <v>99.59</v>
+        <v>99.39</v>
       </c>
       <c r="E1">
-        <v>99.53</v>
+        <v>99.33</v>
       </c>
       <c r="G1">
         <f>AVERAGE(A1:E1)</f>
-        <v>99.557999999999993</v>
+        <v>99.331999999999994</v>
       </c>
       <c r="H1">
         <f>STDEV(A1:E1)</f>
-        <v>3.6331804249168931E-2</v>
+        <v>3.3466401061363157E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -389,11 +389,11 @@
         <v>91.105999999999995</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G2:G13" si="0">AVERAGE(A3:E3)</f>
+        <f t="shared" ref="G3:G13" si="0">AVERAGE(A3:E3)</f>
         <v>91.581400000000002</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H2:H13" si="1">STDEV(A3:E3)</f>
+        <f t="shared" ref="H3:H13" si="1">STDEV(A3:E3)</f>
         <v>1.0178495959619993</v>
       </c>
     </row>

--- a/MNIST/ablation/whether_attached/BBP_with_special_train/count.xlsx
+++ b/MNIST/ablation/whether_attached/BBP_with_special_train/count.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9391F1-4867-44A0-97BC-1A1591FDD8A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149DB809-8CDC-4A29-8F6F-121CC5E02883}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -57,8 +60,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -339,13 +343,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -363,11 +370,11 @@
       <c r="E1">
         <v>99.33</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <f>AVERAGE(A1:E1)</f>
         <v>99.331999999999994</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <f>STDEV(A1:E1)</f>
         <v>3.3466401061363157E-2</v>
       </c>
@@ -388,12 +395,12 @@
       <c r="E3">
         <v>91.105999999999995</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G13" si="0">AVERAGE(A3:E3)</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G20" si="0">AVERAGE(A3:E3)</f>
         <v>91.581400000000002</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H13" si="1">STDEV(A3:E3)</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H20" si="1">STDEV(A3:E3)</f>
         <v>1.0178495959619993</v>
       </c>
     </row>
@@ -413,11 +420,11 @@
       <c r="E4">
         <v>96.596000000000004</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>97.000599999999991</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>0.46227729773372989</v>
       </c>
@@ -438,11 +445,11 @@
       <c r="E5">
         <v>93.222999999999999</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>93.459199999999996</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>0.48130312693769245</v>
       </c>
@@ -463,11 +470,11 @@
       <c r="E6">
         <v>91.367000000000004</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>92.406800000000004</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>1.2285937896636123</v>
       </c>
@@ -488,11 +495,11 @@
       <c r="E7">
         <v>98.933999999999997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>99.03779999999999</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>0.12948243124069195</v>
       </c>
@@ -513,11 +520,11 @@
       <c r="E9">
         <v>90.492000000000004</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>90.852200000000011</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>0.84781318696986474</v>
       </c>
@@ -538,11 +545,11 @@
       <c r="E10">
         <v>98.120999999999995</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>97.6464</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0.34542191592311877</v>
       </c>
@@ -563,11 +570,11 @@
       <c r="E11">
         <v>94.495000000000005</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>94.552400000000006</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>0.93009236100507686</v>
       </c>
@@ -588,11 +595,11 @@
       <c r="E12">
         <v>99.991</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>99.989599999999996</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1.6733200530693467E-3</v>
       </c>
@@ -613,13 +620,138 @@
       <c r="E13">
         <v>30.681000000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>27.195</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>2.5989200641805055</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>90.564999999999998</v>
+      </c>
+      <c r="B16">
+        <v>90.034999999999997</v>
+      </c>
+      <c r="C16">
+        <v>88.102999999999994</v>
+      </c>
+      <c r="D16">
+        <v>92.174000000000007</v>
+      </c>
+      <c r="E16">
+        <v>91.596000000000004</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>90.494599999999991</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5787182459197762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>97.046000000000006</v>
+      </c>
+      <c r="B17">
+        <v>96.983999999999995</v>
+      </c>
+      <c r="C17">
+        <v>96.427000000000007</v>
+      </c>
+      <c r="D17">
+        <v>97.125</v>
+      </c>
+      <c r="E17">
+        <v>97.031999999999996</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>96.922799999999995</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28175822969347031</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>93.323999999999998</v>
+      </c>
+      <c r="B18">
+        <v>93.054000000000002</v>
+      </c>
+      <c r="C18">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="D18">
+        <v>93.932000000000002</v>
+      </c>
+      <c r="E18">
+        <v>93.585999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>93.245800000000003</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60471332050815696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>99.507999999999996</v>
+      </c>
+      <c r="B19">
+        <v>99.474999999999994</v>
+      </c>
+      <c r="C19">
+        <v>99.376000000000005</v>
+      </c>
+      <c r="D19">
+        <v>99.481999999999999</v>
+      </c>
+      <c r="E19">
+        <v>99.498999999999995</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>99.468000000000004</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3080128108357022E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>86.534999999999997</v>
+      </c>
+      <c r="B20">
+        <v>86.135999999999996</v>
+      </c>
+      <c r="C20">
+        <v>83.704999999999998</v>
+      </c>
+      <c r="D20">
+        <v>87.997</v>
+      </c>
+      <c r="E20">
+        <v>86.521000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>86.178799999999995</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5549396129753728</v>
       </c>
     </row>
   </sheetData>
